--- a/biology/Médecine/Hyperthermie/Hyperthermie.xlsx
+++ b/biology/Médecine/Hyperthermie/Hyperthermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hyperthermie, appelée aussi coup de chaleur ou insolation, se réfère à une élévation anormale de la température à l'intérieur des cellules, d'un organe ou des organismes homéothermes qui doivent maintenir leur température interne grâce des mécanismes de thermorégulation physiologique et de thermorégulation comportementale (recherche de zones ombragées, contact avec des éléments frais, entrée dans l'eau …) permettant d'augmenter les pertes de chaleur[1]. Ce phénomène est généralement associé à l'homme lorsque la température corporelle dépasse le seuil de normothermie (37 à 37,5 °C). Cette augmentation est due à l'accumulation de chaleur issue de l'environnement, et elle peut être locale ou générale.
+L'hyperthermie, appelée aussi coup de chaleur ou insolation, se réfère à une élévation anormale de la température à l'intérieur des cellules, d'un organe ou des organismes homéothermes qui doivent maintenir leur température interne grâce des mécanismes de thermorégulation physiologique et de thermorégulation comportementale (recherche de zones ombragées, contact avec des éléments frais, entrée dans l'eau …) permettant d'augmenter les pertes de chaleur. Ce phénomène est généralement associé à l'homme lorsque la température corporelle dépasse le seuil de normothermie (37 à 37,5 °C). Cette augmentation est due à l'accumulation de chaleur issue de l'environnement, et elle peut être locale ou générale.
 L'hyperthermie peut résulter :
-d'une exposition à la chaleur du Soleil : c'est l'« insolation » appelée parfois, depuis 1919, « coup de bambou »[2] ;
+d'une exposition à la chaleur du Soleil : c'est l'« insolation » appelée parfois, depuis 1919, « coup de bambou » ;
 d'une exposition à la chaleur ambiante (canicule, ambiance industrielle, incendie) : c'est le « coup de chaleur classique » ;
 d'un effort intense avec une mauvaise évacuation de la chaleur (à cause d'une ambiance trop chaude et humide ou de vêtements trop isolants) : c'est le « coup de chaleur d'exercice » (CCE) ou « d'effort » ;
 de l'effet de certaines substances comme la MDMA (ecstasy), l'hyperthermie provoquée peut d'ailleurs être fatale au consommateur[réf. nécessaire].
-S'il n'existe pas de consensus concernant un seuil à partir duquel l'hyperthermie serait dangereuse, certains auteurs estiment en se basant sur des données animales que le système nerveux central pourraît présenter des signes de souffrance à partir de 41,5 °C[3].
+S'il n'existe pas de consensus concernant un seuil à partir duquel l'hyperthermie serait dangereuse, certains auteurs estiment en se basant sur des données animales que le système nerveux central pourraît présenter des signes de souffrance à partir de 41,5 °C.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Différence avec la fièvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut noter la différence entre fièvre et hyperthermie : 
 la fièvre est une des composantes de la réaction inflammatoire primaire. Le « thermostat » central indique une valeur de référence plus élevée qu'à l’accoutumée pour faciliter la « lutte contre les agresseurs ». L'élévation de la température corporelle est produite par le corps.
@@ -552,11 +566,13 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes d'un « coup de chaleur classique » sont généralement les suivants : étourdissements, nausées, vomissements, sudation excessive, maux de tête et, occasionnellement, de la somnolence.
 Pour ce qui est du « coup de chaleur d'exercice », les symptômes sont généralement les mêmes que pour le « coup de chaleur classique » mais, dans le cas présent, il est fréquent d'observer la perte de couleur dans le champ de vision, « voir blanc ».
-Dans des cas extrêmes l'hyperthermie peut entrainer la mort[4],[5].
+Dans des cas extrêmes l'hyperthermie peut entrainer la mort,.
 </t>
         </is>
       </c>
@@ -585,11 +601,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traitement du coup de chaleur (classique ou d'effort) :
 surveillance de la température (monitoring) ;
-refroidissement du malade (déshabiller, appliquer des linges froids et humides, lavage gastrique froid en milieu spécialisé, ventilation de l'air, le bain glacé est déconseillé[6]) ;
+refroidissement du malade (déshabiller, appliquer des linges froids et humides, lavage gastrique froid en milieu spécialisé, ventilation de l'air, le bain glacé est déconseillé) ;
 aucun médicament n'est efficace dans le traitement du coup de chaleur (ni salicylés, ni paracétamol…) ;
 mesures d'hydratation (autant que possible) et de remplissage (en milieu spécialisé)</t>
         </is>
@@ -619,11 +637,13 @@
           <t>Fécondité masculine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperthermie testiculaire ou scrotale est associée à une altération de la spermatogenèse. Chez l'homme, la valeur moyenne de la température testiculaire se situe entre 33 °C et 34 °C. 
-Certaines situations entraînant une élévation thermique du testicule pourraient être responsables d'une infécondité masculine telles qu'une fièvre prolongée, le port de pantalons serrés, une varicocèle ou une cryptorchidie[7]. 
-De nombreuses études ont mis en évidence que l'hyperthermie testiculaire peut être utilisée comme méthode de contraception masculine thermique grâce au maintien des testicules dans la poche inguinale en position de cryptorchidie artificielle[8].
+Certaines situations entraînant une élévation thermique du testicule pourraient être responsables d'une infécondité masculine telles qu'une fièvre prolongée, le port de pantalons serrés, une varicocèle ou une cryptorchidie. 
+De nombreuses études ont mis en évidence que l'hyperthermie testiculaire peut être utilisée comme méthode de contraception masculine thermique grâce au maintien des testicules dans la poche inguinale en position de cryptorchidie artificielle.
 </t>
         </is>
       </c>
